--- a/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,22 +636,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -661,27 +661,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>-7,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>66,04%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,48</t>
+          <t>0,9; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,33</t>
+          <t>-4,75; 2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,23</t>
+          <t>-1,06; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,63</t>
+          <t>-1,51; 4,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,82</t>
+          <t>1,95; 8,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 67,69</t>
+          <t>4,26; 62,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 24,97</t>
+          <t>-35,0; 26,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 105,83</t>
+          <t>-13,14; 100,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 111,72</t>
+          <t>-18,39; 103,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,44; 140,61</t>
+          <t>17,05; 129,73</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>123,69%</t>
+          <t>115,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>35,98%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,43</t>
+          <t>-1,16; 7,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,5</t>
+          <t>0,68; 8,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,1</t>
+          <t>-0,14; 5,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,98</t>
+          <t>1,73; 9,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 10,76</t>
+          <t>-2,75; 11,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 58,05</t>
+          <t>-6,68; 58,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 199,25</t>
+          <t>5,54; 191,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 150,53</t>
+          <t>-3,42; 140,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,91; 285,39</t>
+          <t>22,92; 286,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 159,86</t>
+          <t>-23,1; 174,1</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>218,12%</t>
+          <t>198,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>224,97%</t>
+          <t>237,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 13,4</t>
+          <t>-2,85; 12,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 8,17</t>
+          <t>-5,39; 9,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 18,2</t>
+          <t>3,39; 17,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,22</t>
+          <t>-0,02; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 198,38</t>
+          <t>-21,4; 196,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 146,74</t>
+          <t>-48,3; 192,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,89; 636,15</t>
+          <t>24,4; 572,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,2; —</t>
+          <t>-46,61; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -996,22 +996,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1021,27 +1021,27 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>58,01%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,15</t>
+          <t>1,68; 7,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,94</t>
+          <t>-0,78; 4,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,57</t>
+          <t>1,31; 5,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,43</t>
+          <t>1,31; 5,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,89</t>
+          <t>1,67; 7,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 51,89</t>
+          <t>10,61; 54,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 50,39</t>
+          <t>-8,32; 54,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,33; 112,47</t>
+          <t>18,5; 107,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 145,76</t>
+          <t>20,81; 149,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,4; 109,46</t>
+          <t>14,85; 105,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,41</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>32,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-7,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,4%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32,53%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>66,04%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.325659095015981</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8014908205779949</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.976854767534062</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.795248795528105</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.411696180606723</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3280979410880825</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.07204342471518792</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2875314150984526</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.293121832868938</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6603864448296509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 8,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 2,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 5,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 4,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 8,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 62,86</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,0; 26,26</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; 100,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-18,39; 103,38</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>17,05; 129,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8982539726492748</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.60683000213822</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.380784160631763</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.757323393732526</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.951676146300332</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.04255358441761569</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.346932633760304</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1578666429256444</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2230239801449949</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1705431852997375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.980412684764625</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.451043057938473</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.066947953003289</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.395612320706467</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.633596199569373</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6286240655912414</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2735140308675147</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9786407050851356</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.9715695379767723</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.297290256349172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>19,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>76,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>51,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>115,57%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>35,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 7,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 8,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 5,84</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 9,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 11,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 58,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>5,54; 191,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 140,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>22,92; 286,55</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-23,1; 174,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.944879126195418</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.441792932110506</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.267427425104048</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.123367534095493</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.478743083564077</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1957343395485983</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7435970309596858</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6136821454660241</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.306349738393181</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3598404617892648</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,49%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>198,12%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>237,63%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.30572061259677</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4848967650263968</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3836915032747722</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.125150033851597</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.750651286779271</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0743899262427814</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03991936580535016</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.0346727287430925</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3534506617479136</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.230992660376647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 12,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 9,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 17,04</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 8,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,4; 196,59</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-48,3; 192,51</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>24,4; 572,22</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-46,61; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.965012959079711</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.304243633894899</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.103046318738469</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.794865834491853</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.32449260794057</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5310763830844631</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.901703598462451</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.504201012700287</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.079200973972076</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.740970489837851</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,6%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>19,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>54,32%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>71,33%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>58,01%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.093669640090964</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.302973813152508</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.617305213343</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.048564195427069</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.4948949636198029</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2876078949082116</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.140539352044446</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.248443281675443</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 7,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 4,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 5,36</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 5,61</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 7,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,61; 54,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 54,07</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18,5; 107,18</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>20,81; 149,17</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>14,85; 105,27</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.850537155482814</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.712003134645995</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.134264907060198</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1266875516267283</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.2139556115925138</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4434256743081331</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.3639806495348424</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4776073376118286</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.58242126703882</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.30067783364114</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.68246212876744</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.461824942772395</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.965886599036379</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.198454803590839</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>6.058602073261998</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.434943462337285</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.669398635907568</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.483961005605401</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.400443818532177</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.959012476149899</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2951340484662766</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1921491495882807</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5785199880400415</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7212435257439656</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5801136291440606</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.695068602453228</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8604431581529324</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.440488693281458</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.267921481440293</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.669947906391104</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1049705624838797</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.0849499692303535</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1879964521248965</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2187190494248648</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.14847165212475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.179516459816377</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.023385088492017</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.601376279988257</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.548115802182521</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.672970023100534</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5264730647147154</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5298866262919358</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.09814673336121</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.498067497102678</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.052653090849154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1099,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
